--- a/ROB.xlsx
+++ b/ROB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaral005\Documents\R projects\github desktop\EmotionalEmpathy_Meta-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB6027F-F6CB-48A8-AE80-711F78CD4FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7C945-DBDB-4726-9E82-A0BB37EDAE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROB" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="75">
   <si>
     <t>Paper</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Definitely high</t>
-  </si>
-  <si>
-    <t>Katzorreck_2018</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,29 +2104,6 @@
         <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
